--- a/TASK 10052018/TASK PAY SLIP-DONE/rpt_salary_pay_slip_ssa.xlsx
+++ b/TASK 10052018/TASK PAY SLIP-DONE/rpt_salary_pay_slip_ssa.xlsx
@@ -387,11 +387,23 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -494,18 +506,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -787,208 +787,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="3.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" customWidth="1"/>
+    <col min="6" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="9" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="47"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="53"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="50"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="50"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="54"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="33" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="56"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="22"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="31"/>
+      <c r="F4" s="35"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="22"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="H4" s="57"/>
+      <c r="I4" s="26"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="18"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="18"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="18"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="45"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="18"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="19"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="19"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="46"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="F8" s="46"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="4"/>
       <c r="D9" s="7"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="33" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="4"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="30"/>
+      <c r="F10" s="34"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="30"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="55"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
+      <c r="F11" s="34"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="30"/>
+      <c r="F12" s="34"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="55"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="30"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="55"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="35"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="31"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="57"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="28"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="21"/>
+      <c r="M14" s="23"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="12"/>
       <c r="D15" s="6"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="28"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="32"/>
       <c r="H15" s="12"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="33" t="s">
         <v>1</v>
       </c>
       <c r="G16" s="10"/>
@@ -996,357 +995,357 @@
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="10"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="30"/>
+      <c r="F17" s="34"/>
       <c r="G17" s="10"/>
       <c r="H17" s="13"/>
       <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="10"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="30"/>
+      <c r="F18" s="34"/>
       <c r="G18" s="10"/>
       <c r="H18" s="13"/>
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="10"/>
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="30"/>
+      <c r="F19" s="34"/>
       <c r="G19" s="10"/>
       <c r="H19" s="13"/>
       <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="10"/>
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="30"/>
+      <c r="F20" s="34"/>
       <c r="G20" s="10"/>
       <c r="H20" s="13"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="10"/>
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="30"/>
+      <c r="F21" s="34"/>
       <c r="G21" s="10"/>
       <c r="H21" s="13"/>
       <c r="I21" s="14"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="10"/>
       <c r="C22" s="13"/>
       <c r="D22" s="14"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="30"/>
+      <c r="F22" s="34"/>
       <c r="G22" s="10"/>
       <c r="H22" s="13"/>
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="10"/>
       <c r="C23" s="13"/>
       <c r="D23" s="14"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="30"/>
+      <c r="F23" s="34"/>
       <c r="G23" s="10"/>
       <c r="H23" s="13"/>
       <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="10"/>
       <c r="C24" s="13"/>
       <c r="D24" s="14"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="30"/>
+      <c r="F24" s="34"/>
       <c r="G24" s="10"/>
       <c r="H24" s="13"/>
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="10"/>
       <c r="C25" s="13"/>
       <c r="D25" s="14"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="31"/>
+      <c r="F25" s="35"/>
       <c r="G25" s="10"/>
       <c r="H25" s="13"/>
       <c r="I25" s="14"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="14"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="29" t="s">
+      <c r="F26" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="36"/>
-      <c r="H26" s="37"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
       <c r="I26" s="14"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="14"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="41"/>
       <c r="I27" s="14"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="37"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="41"/>
       <c r="D28" s="14"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="37"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="41"/>
       <c r="I28" s="14"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="41"/>
       <c r="D29" s="14"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="36"/>
-      <c r="H29" s="37"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="41"/>
       <c r="I29" s="14"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="37"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="41"/>
       <c r="D30" s="14"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
       <c r="I30" s="14"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="41"/>
       <c r="D31" s="14"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="37"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="41"/>
       <c r="I31" s="14"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="37"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="41"/>
       <c r="D32" s="14"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="37"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="41"/>
       <c r="I32" s="14"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="37"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="41"/>
       <c r="D33" s="14"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="37"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="41"/>
       <c r="I33" s="14"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" s="39"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="15"/>
       <c r="D34" s="16"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="39"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="43"/>
       <c r="H34" s="15"/>
       <c r="I34" s="16"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="16"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="28"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="32"/>
       <c r="I35" s="16"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="28"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="16"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="28"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="32"/>
       <c r="I36" s="16"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="28"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="32"/>
       <c r="D37" s="16"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="28"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="32"/>
       <c r="I37" s="16"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="33"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="14"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="29" t="s">
+      <c r="F38" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G38" s="32"/>
-      <c r="H38" s="33"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="37"/>
       <c r="I38" s="14"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="33"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="37"/>
       <c r="D39" s="14"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="33"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="37"/>
       <c r="I39" s="14"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="33"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
       <c r="D40" s="14"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="33"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="37"/>
       <c r="I40" s="14"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="33"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="37"/>
       <c r="D41" s="14"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="33"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="37"/>
       <c r="I41" s="14"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="35"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="39"/>
       <c r="D42" s="14"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="39"/>
       <c r="I42" s="14"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="28"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="32"/>
       <c r="D43" s="17"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="28"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="32"/>
       <c r="I43" s="17"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="22"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="26"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="22"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="26"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="22"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="22"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="26"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="22"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="26"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="22"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="26"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="25"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="29"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="25"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="76">
@@ -1428,6 +1427,6 @@
     <mergeCell ref="F45:I45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>